--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_11_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_11_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>961196.47622453</v>
+        <v>1008597.980444751</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20545356.87640059</v>
+        <v>20545313.12298425</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6309977.7865701</v>
+        <v>6309997.475607455</v>
       </c>
     </row>
     <row r="11">
@@ -22559,7 +22561,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.55180281510271</v>
+        <v>25.33193640131847</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.96830135520742</v>
+        <v>24.96830135520741</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>24.79834527124302</v>
+        <v>24.79834527124303</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23516,13 +23518,13 @@
         <v>259.5820224797425</v>
       </c>
       <c r="J14" t="n">
-        <v>113.271920526384</v>
+        <v>113.2719205263841</v>
       </c>
       <c r="K14" t="n">
         <v>86.48232478941668</v>
       </c>
       <c r="L14" t="n">
-        <v>46.71789743482162</v>
+        <v>46.71789743482168</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,7 +23533,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>14.73755640880864</v>
+        <v>14.7375564088087</v>
       </c>
       <c r="P14" t="n">
         <v>69.20859413233046</v>
@@ -23595,7 +23597,7 @@
         <v>122.4540854883441</v>
       </c>
       <c r="J15" t="n">
-        <v>98.35185998134865</v>
+        <v>98.35185998134867</v>
       </c>
       <c r="K15" t="n">
         <v>39.81455943866638</v>
@@ -23616,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.87704076657047</v>
+        <v>81.8770407665705</v>
       </c>
       <c r="R15" t="n">
         <v>165.9135208004222</v>
@@ -23683,7 +23685,7 @@
         <v>77.02385333317633</v>
       </c>
       <c r="M16" t="n">
-        <v>75.86266198249905</v>
+        <v>75.86266198249908</v>
       </c>
       <c r="N16" t="n">
         <v>61.16136330339108</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1121700.237293107</v>
+        <v>1121719.926330462</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>623166.7984961706</v>
+        <v>623177.7368502561</v>
       </c>
       <c r="C2" t="n">
-        <v>623195.8276938006</v>
+        <v>623195.8276938001</v>
       </c>
       <c r="D2" t="n">
-        <v>623204.2830089777</v>
+        <v>623204.2830089774</v>
       </c>
       <c r="E2" t="n">
-        <v>196721.990166186</v>
+        <v>196721.9901661861</v>
       </c>
       <c r="F2" t="n">
         <v>196721.9901661861</v>
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>227770.7213497128</v>
+        <v>280472.422327949</v>
       </c>
       <c r="C3" t="n">
-        <v>132170.2271004163</v>
+        <v>82367.79156438279</v>
       </c>
       <c r="D3" t="n">
         <v>36206.25146095255</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>486662.9276887411</v>
+        <v>467600.2189439839</v>
       </c>
       <c r="C4" t="n">
         <v>436072.5797102631</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38780.50030896609</v>
+        <v>39972.78090431458</v>
       </c>
       <c r="C5" t="n">
         <v>41944.68285061335</v>
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-130047.3508512495</v>
+        <v>-164867.6853259914</v>
       </c>
       <c r="C6" t="n">
-        <v>13008.33803250777</v>
+        <v>62810.77356854093</v>
       </c>
       <c r="D6" t="n">
-        <v>122222.2010110768</v>
+        <v>122222.2010110766</v>
       </c>
       <c r="E6" t="n">
-        <v>99621.4535347226</v>
+        <v>99621.45353472269</v>
       </c>
       <c r="F6" t="n">
-        <v>185162.1669467549</v>
+        <v>185162.166946755</v>
       </c>
       <c r="G6" t="n">
-        <v>185162.1669467549</v>
+        <v>185162.166946755</v>
       </c>
       <c r="H6" t="n">
         <v>185162.166946755</v>
@@ -26555,10 +26557,10 @@
         <v>185162.166946755</v>
       </c>
       <c r="N6" t="n">
+        <v>185162.166946755</v>
+      </c>
+      <c r="O6" t="n">
         <v>185162.1669467549</v>
-      </c>
-      <c r="O6" t="n">
-        <v>185162.166946755</v>
       </c>
       <c r="P6" t="n">
         <v>185162.1669467549</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.3715738057838</v>
+        <v>291.0633442346139</v>
       </c>
       <c r="C3" t="n">
         <v>381.5175619547406</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>236.3715738057838</v>
+        <v>291.0633442346139</v>
       </c>
       <c r="C3" t="n">
-        <v>145.1459881489568</v>
+        <v>90.45421772012668</v>
       </c>
       <c r="D3" t="n">
         <v>42.27657588613982</v>
@@ -27394,46 +27396,46 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>363.0156506870625</v>
+        <v>360.7639437768947</v>
       </c>
       <c r="I2" t="n">
-        <v>305.1314015781159</v>
+        <v>296.6550016606989</v>
       </c>
       <c r="J2" t="n">
-        <v>213.5493763139611</v>
+        <v>194.8884892770409</v>
       </c>
       <c r="K2" t="n">
-        <v>236.7722367661941</v>
+        <v>208.8044044337868</v>
       </c>
       <c r="L2" t="n">
-        <v>233.1658227850986</v>
+        <v>198.4692536918419</v>
       </c>
       <c r="M2" t="n">
-        <v>207.459241621354</v>
+        <v>168.8526231919618</v>
       </c>
       <c r="N2" t="n">
-        <v>203.2429787239556</v>
+        <v>164.011664846399</v>
       </c>
       <c r="O2" t="n">
-        <v>213.8052679077012</v>
+        <v>176.7602506822116</v>
       </c>
       <c r="P2" t="n">
-        <v>239.1082803023573</v>
+        <v>207.4912151671662</v>
       </c>
       <c r="Q2" t="n">
-        <v>258.6317880929379</v>
+        <v>234.8886889013949</v>
       </c>
       <c r="R2" t="n">
-        <v>290.6361436793111</v>
+        <v>276.8249600644368</v>
       </c>
       <c r="S2" t="n">
-        <v>266.2444795183227</v>
+        <v>261.2342736142143</v>
       </c>
       <c r="T2" t="n">
-        <v>222.2044941766656</v>
+        <v>221.2420289503251</v>
       </c>
       <c r="U2" t="n">
-        <v>247.9668671915276</v>
+        <v>247.9492778784249</v>
       </c>
       <c r="V2" t="n">
         <v>308.2281821605244</v>
@@ -27470,49 +27472,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>169.8427692416854</v>
+        <v>169.7251303392536</v>
       </c>
       <c r="H3" t="n">
-        <v>151.6483771378492</v>
+        <v>150.512233001205</v>
       </c>
       <c r="I3" t="n">
-        <v>144.2189915153264</v>
+        <v>140.1687047430026</v>
       </c>
       <c r="J3" t="n">
-        <v>158.0764256790844</v>
+        <v>146.962129199769</v>
       </c>
       <c r="K3" t="n">
-        <v>141.8933550049603</v>
+        <v>122.8972520627128</v>
       </c>
       <c r="L3" t="n">
-        <v>114.7586524134717</v>
+        <v>89.21604774291291</v>
       </c>
       <c r="M3" t="n">
-        <v>102.1452973991276</v>
+        <v>72.33828251541522</v>
       </c>
       <c r="N3" t="n">
-        <v>81.1982259551414</v>
+        <v>50.60230808099803</v>
       </c>
       <c r="O3" t="n">
-        <v>110.7523994463509</v>
+        <v>82.76311198924955</v>
       </c>
       <c r="P3" t="n">
-        <v>120.6221329883223</v>
+        <v>98.15826222482795</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.5707764365441</v>
+        <v>147.5542737331415</v>
       </c>
       <c r="R3" t="n">
-        <v>205.1624392358313</v>
+        <v>197.8585080830906</v>
       </c>
       <c r="S3" t="n">
-        <v>230.2783877089801</v>
+        <v>228.0932966923189</v>
       </c>
       <c r="T3" t="n">
-        <v>242.6703514121589</v>
+        <v>242.1961840817429</v>
       </c>
       <c r="U3" t="n">
-        <v>258.0130586177004</v>
+        <v>258.0053192162247</v>
       </c>
       <c r="V3" t="n">
         <v>255.0969898936781</v>
@@ -27549,49 +27551,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G4" t="n">
-        <v>170.0994962456094</v>
+        <v>170.0008717415574</v>
       </c>
       <c r="H4" t="n">
-        <v>173.2649899019503</v>
+        <v>172.388128402288</v>
       </c>
       <c r="I4" t="n">
-        <v>184.9303639744524</v>
+        <v>181.964456161689</v>
       </c>
       <c r="J4" t="n">
-        <v>176.2321216506977</v>
+        <v>169.2593692142221</v>
       </c>
       <c r="K4" t="n">
-        <v>160.1247623428918</v>
+        <v>148.6663881448517</v>
       </c>
       <c r="L4" t="n">
-        <v>155.8167675140648</v>
+        <v>141.1539935207355</v>
       </c>
       <c r="M4" t="n">
-        <v>158.938742404479</v>
+        <v>143.4789031011296</v>
       </c>
       <c r="N4" t="n">
-        <v>142.2620802171062</v>
+        <v>127.1698413379505</v>
       </c>
       <c r="O4" t="n">
-        <v>164.7442482705998</v>
+        <v>150.8041229160514</v>
       </c>
       <c r="P4" t="n">
-        <v>172.2557538272067</v>
+        <v>160.3275683553189</v>
       </c>
       <c r="Q4" t="n">
-        <v>210.5035200031762</v>
+        <v>202.2450626684228</v>
       </c>
       <c r="R4" t="n">
-        <v>255.6840118644164</v>
+        <v>251.2494955276788</v>
       </c>
       <c r="S4" t="n">
-        <v>258.0681075980811</v>
+        <v>256.3493514683751</v>
       </c>
       <c r="T4" t="n">
-        <v>216.4524517461722</v>
+        <v>216.0310561379501</v>
       </c>
       <c r="U4" t="n">
-        <v>292.9647538291593</v>
+        <v>292.9593743107565</v>
       </c>
       <c r="V4" t="n">
         <v>232.1699497460494</v>
@@ -27646,10 +27648,10 @@
         <v>141.0849161526705</v>
       </c>
       <c r="M5" t="n">
-        <v>105.0014909015127</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N5" t="n">
-        <v>99.1273544811869</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O5" t="n">
         <v>115.4918363067663</v>
@@ -27725,7 +27727,7 @@
         <v>46.97136804258392</v>
       </c>
       <c r="M6" t="n">
-        <v>23.04073385794618</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -27877,7 +27879,7 @@
         <v>149.6006091008002</v>
       </c>
       <c r="K8" t="n">
-        <v>140.9296117214526</v>
+        <v>140.9296117214527</v>
       </c>
       <c r="L8" t="n">
         <v>114.2645714324614</v>
@@ -27959,7 +27961,7 @@
         <v>76.79584047590225</v>
       </c>
       <c r="L9" t="n">
-        <v>27.22701059689194</v>
+        <v>27.22701059689192</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -27971,7 +27973,7 @@
         <v>14.83625009529541</v>
       </c>
       <c r="P9" t="n">
-        <v>43.64096701700126</v>
+        <v>43.64096701700123</v>
       </c>
       <c r="Q9" t="n">
         <v>111.1109056471342</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9502374826363161</v>
+        <v>1.170103896420557</v>
       </c>
       <c r="H2" t="n">
-        <v>9.731619619049175</v>
+        <v>11.98332652921704</v>
       </c>
       <c r="I2" t="n">
-        <v>36.63403054933661</v>
+        <v>45.11043046675359</v>
       </c>
       <c r="J2" t="n">
-        <v>80.65021854190411</v>
+        <v>99.31110557882438</v>
       </c>
       <c r="K2" t="n">
-        <v>120.8737711818994</v>
+        <v>148.8416035143066</v>
       </c>
       <c r="L2" t="n">
-        <v>149.9546015411306</v>
+        <v>184.6511706343873</v>
       </c>
       <c r="M2" t="n">
-        <v>166.8533873729642</v>
+        <v>205.4600058023564</v>
       </c>
       <c r="N2" t="n">
-        <v>169.5532496205046</v>
+        <v>208.7845634980613</v>
       </c>
       <c r="O2" t="n">
-        <v>160.1043256525397</v>
+        <v>197.1493428780294</v>
       </c>
       <c r="P2" t="n">
-        <v>136.6453377999557</v>
+        <v>168.2624029351468</v>
       </c>
       <c r="Q2" t="n">
-        <v>102.6149579530425</v>
+        <v>126.3580571445856</v>
       </c>
       <c r="R2" t="n">
-        <v>59.69035526865355</v>
+        <v>73.50153888352791</v>
       </c>
       <c r="S2" t="n">
-        <v>21.65353663557508</v>
+        <v>26.66374253968348</v>
       </c>
       <c r="T2" t="n">
-        <v>4.159664580240475</v>
+        <v>5.122129806580993</v>
       </c>
       <c r="U2" t="n">
-        <v>0.07601899861090528</v>
+        <v>0.09360831171364459</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5084218757331954</v>
+        <v>0.6260607781650186</v>
       </c>
       <c r="H3" t="n">
-        <v>4.91028495773902</v>
+        <v>6.046429094383207</v>
       </c>
       <c r="I3" t="n">
-        <v>17.50487598467361</v>
+        <v>21.55516275699735</v>
       </c>
       <c r="J3" t="n">
-        <v>48.03471765424896</v>
+        <v>59.14901413356434</v>
       </c>
       <c r="K3" t="n">
-        <v>82.09898332837305</v>
+        <v>101.0950862706206</v>
       </c>
       <c r="L3" t="n">
-        <v>110.3922147288239</v>
+        <v>135.9348193993827</v>
       </c>
       <c r="M3" t="n">
-        <v>128.8225077241522</v>
+        <v>158.6295226078646</v>
       </c>
       <c r="N3" t="n">
-        <v>132.2320561802752</v>
+        <v>162.8279740544186</v>
       </c>
       <c r="O3" t="n">
-        <v>120.9664977758713</v>
+        <v>148.9557852329727</v>
       </c>
       <c r="P3" t="n">
-        <v>97.08627905996431</v>
+        <v>119.5501498234587</v>
       </c>
       <c r="Q3" t="n">
-        <v>64.89960645324088</v>
+        <v>79.91610915664343</v>
       </c>
       <c r="R3" t="n">
-        <v>31.56675470561016</v>
+        <v>38.87068585835091</v>
       </c>
       <c r="S3" t="n">
-        <v>9.443713349693338</v>
+        <v>11.62880436635461</v>
       </c>
       <c r="T3" t="n">
-        <v>2.049296946485993</v>
+        <v>2.523464276901982</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03344880761402603</v>
+        <v>0.04118820908980387</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4262438216169872</v>
+        <v>0.5248683256689758</v>
       </c>
       <c r="H4" t="n">
-        <v>3.789695068558307</v>
+        <v>4.666556568220534</v>
       </c>
       <c r="I4" t="n">
-        <v>12.81831419917267</v>
+        <v>15.78422201193611</v>
       </c>
       <c r="J4" t="n">
-        <v>30.13543818832099</v>
+        <v>37.10819062479659</v>
       </c>
       <c r="K4" t="n">
-        <v>49.52178218422813</v>
+        <v>60.98015638226827</v>
       </c>
       <c r="L4" t="n">
-        <v>63.37083144294736</v>
+        <v>78.03360543627666</v>
       </c>
       <c r="M4" t="n">
-        <v>66.81565651037917</v>
+        <v>82.27549581372863</v>
       </c>
       <c r="N4" t="n">
-        <v>65.22692953889772</v>
+        <v>80.31916841805342</v>
       </c>
       <c r="O4" t="n">
-        <v>60.24762671364471</v>
+        <v>74.18775206819309</v>
       </c>
       <c r="P4" t="n">
-        <v>51.55225275265813</v>
+        <v>63.48043822454593</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.69210764467336</v>
+        <v>43.9505649794267</v>
       </c>
       <c r="R4" t="n">
-        <v>19.16547219743289</v>
+        <v>23.59998853417049</v>
       </c>
       <c r="S4" t="n">
-        <v>7.428267327634219</v>
+        <v>9.147023457340239</v>
       </c>
       <c r="T4" t="n">
-        <v>1.821223601454399</v>
+        <v>2.242619209676532</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02324966299729023</v>
+        <v>0.02862918140012599</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31297,7 +31299,7 @@
         <v>269.3111380928054</v>
       </c>
       <c r="N5" t="n">
-        <v>273.6688738632733</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O5" t="n">
         <v>258.4177572534746</v>
@@ -31315,7 +31317,7 @@
         <v>34.95007615293931</v>
       </c>
       <c r="T5" t="n">
-        <v>6.713942220932166</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U5" t="n">
         <v>0.1226991154025295</v>
@@ -31355,10 +31357,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8206226804309515</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H6" t="n">
-        <v>7.925487466267348</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I6" t="n">
         <v>28.25389491834636</v>
@@ -31391,7 +31393,7 @@
         <v>50.95059063237085</v>
       </c>
       <c r="S6" t="n">
-        <v>15.24270636677666</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T6" t="n">
         <v>3.307685277701948</v>
@@ -31470,7 +31472,7 @@
         <v>30.93419444964174</v>
       </c>
       <c r="S7" t="n">
-        <v>11.98965846339734</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T7" t="n">
         <v>2.939561542929968</v>
@@ -31522,7 +31524,7 @@
         <v>65.68170250898712</v>
       </c>
       <c r="J8" t="n">
-        <v>144.5989857550651</v>
+        <v>144.598985755065</v>
       </c>
       <c r="K8" t="n">
         <v>216.7163962266408</v>
@@ -31552,7 +31554,7 @@
         <v>38.82295041627765</v>
       </c>
       <c r="T8" t="n">
-        <v>7.457924978486244</v>
+        <v>7.457924978486245</v>
       </c>
       <c r="U8" t="n">
         <v>0.13629560211968</v>
@@ -31592,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9115572021483087</v>
+        <v>0.9115572021483088</v>
       </c>
       <c r="H9" t="n">
         <v>8.803723504958668</v>
@@ -31601,13 +31603,13 @@
         <v>31.38475454765011</v>
       </c>
       <c r="J9" t="n">
-        <v>86.12216531349439</v>
+        <v>86.12216531349441</v>
       </c>
       <c r="K9" t="n">
         <v>147.1964978574311</v>
       </c>
       <c r="L9" t="n">
-        <v>197.9238565454036</v>
+        <v>197.9238565454037</v>
       </c>
       <c r="M9" t="n">
         <v>230.9678051232798</v>
@@ -31674,7 +31676,7 @@
         <v>0.7642189370901121</v>
       </c>
       <c r="H10" t="n">
-        <v>6.794601095219365</v>
+        <v>6.794601095219366</v>
       </c>
       <c r="I10" t="n">
         <v>22.98214767176447</v>
@@ -31683,7 +31685,7 @@
         <v>54.03027885227092</v>
       </c>
       <c r="K10" t="n">
-        <v>88.78834560010573</v>
+        <v>88.78834560010574</v>
       </c>
       <c r="L10" t="n">
         <v>113.6185136106518</v>
@@ -31768,7 +31770,7 @@
         <v>336.4025268914075</v>
       </c>
       <c r="M11" t="n">
-        <v>374.3126289943181</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N11" t="n">
         <v>372.7962283444602</v>
@@ -32002,7 +32004,7 @@
         <v>271.1636831586767</v>
       </c>
       <c r="L14" t="n">
-        <v>336.4025268914076</v>
+        <v>336.4025268914075</v>
       </c>
       <c r="M14" t="n">
         <v>374.3126289943182</v>
@@ -32011,13 +32013,13 @@
         <v>372.7962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>359.1720371514323</v>
+        <v>359.1720371514322</v>
       </c>
       <c r="P14" t="n">
         <v>306.5450239699825</v>
       </c>
       <c r="Q14" t="n">
-        <v>230.2025466206897</v>
+        <v>230.2025466206896</v>
       </c>
       <c r="R14" t="n">
         <v>133.9071034636654</v>
@@ -32026,7 +32028,7 @@
         <v>48.57673166064953</v>
       </c>
       <c r="T14" t="n">
-        <v>9.331635451211991</v>
+        <v>9.331635451211989</v>
       </c>
       <c r="U14" t="n">
         <v>0.1705381692968495</v>
@@ -32072,7 +32074,7 @@
         <v>11.0155490432696</v>
       </c>
       <c r="I15" t="n">
-        <v>39.26978201165592</v>
+        <v>39.26978201165591</v>
       </c>
       <c r="J15" t="n">
         <v>107.7592833519847</v>
@@ -32099,7 +32101,7 @@
         <v>145.5933421232145</v>
       </c>
       <c r="R15" t="n">
-        <v>70.81567314101929</v>
+        <v>70.81567314101927</v>
       </c>
       <c r="S15" t="n">
         <v>21.18567220628824</v>
@@ -32145,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9562193970051329</v>
+        <v>0.9562193970051328</v>
       </c>
       <c r="H16" t="n">
-        <v>8.501659729736552</v>
+        <v>8.50165972973655</v>
       </c>
       <c r="I16" t="n">
         <v>28.75612513902709</v>
@@ -32163,7 +32165,7 @@
         <v>142.1637456238359</v>
       </c>
       <c r="M16" t="n">
-        <v>149.8917369323592</v>
+        <v>149.8917369323591</v>
       </c>
       <c r="N16" t="n">
         <v>146.3276464526128</v>
@@ -32175,7 +32177,7 @@
         <v>115.6503896159662</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.07033514376619</v>
+        <v>80.07033514376617</v>
       </c>
       <c r="R16" t="n">
         <v>42.99510125079442</v>
@@ -32184,7 +32186,7 @@
         <v>16.66429621871672</v>
       </c>
       <c r="T16" t="n">
-        <v>4.085664696294658</v>
+        <v>4.085664696294657</v>
       </c>
       <c r="U16" t="n">
         <v>0.05215742165482549</v>
@@ -32242,7 +32244,7 @@
         <v>336.4025268914075</v>
       </c>
       <c r="M17" t="n">
-        <v>374.3126289943181</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N17" t="n">
         <v>372.7962283444602</v>
@@ -34138,7 +34140,7 @@
         <v>336.4025268914075</v>
       </c>
       <c r="M41" t="n">
-        <v>374.3126289943181</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N41" t="n">
         <v>372.7962283444602</v>
@@ -34375,7 +34377,7 @@
         <v>336.4025268914075</v>
       </c>
       <c r="M44" t="n">
-        <v>374.3126289943181</v>
+        <v>374.3126289943182</v>
       </c>
       <c r="N44" t="n">
         <v>372.7962283444602</v>
